--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreek\eclipse-workspace\opencartTraining\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229A9B3D-B1D8-4F07-B509-7EE54AF5196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0221C73B-432B-48C1-9629-C63A08BF6CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
